--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="hm" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -132,9 +132,6 @@
     <t>Golegghorn</t>
   </si>
   <si>
-    <t>Graustoeckli</t>
-  </si>
-  <si>
     <t>Grindelfeld Brunnen</t>
   </si>
   <si>
@@ -291,9 +288,6 @@
     <t>Sparrhorn</t>
   </si>
   <si>
-    <t>Spreitloui</t>
-  </si>
-  <si>
     <t>Steingletscher</t>
   </si>
   <si>
@@ -355,6 +349,12 @@
   </si>
   <si>
     <t>mum_def</t>
+  </si>
+  <si>
+    <t>Schaftelouwi</t>
+  </si>
+  <si>
+    <t>Under Steckli</t>
   </si>
 </sst>
 </file>
@@ -838,8 +838,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1163,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,13 +1178,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
         <v>109</v>
-      </c>
-      <c r="B1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1193,6 +1196,9 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>2484</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1230,151 +1236,241 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>1757</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>600</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>2136</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>2690</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>1057</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>590</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>2401</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>2094</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
+      </c>
+      <c r="C32">
+        <v>2204</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
+      <c r="C33">
+        <v>2129</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
+      <c r="C34">
+        <v>760</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
+      <c r="C35">
+        <v>1702</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
+      <c r="C36">
+        <v>2036</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
+      <c r="C37">
+        <v>2859</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1385,348 +1481,516 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>37</v>
+      <c r="A39" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="C40">
+        <v>2098</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C41">
+        <v>2391</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="C42">
+        <v>1962</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="C43">
+        <v>1302</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="C44">
+        <v>2580</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="C46">
+        <v>1593</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>1020</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="C49">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>48</v>
       </c>
       <c r="B50">
         <v>1400</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51">
         <v>1327</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52">
         <v>1305</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>52</v>
       </c>
       <c r="B54">
         <v>1052</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="C56">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="C57">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="C58">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B59">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="C60">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B61">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="C62">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="C63">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="C64">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="C65">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B66">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="C67">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="C68">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B69">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="C70">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="C71">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="C72">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="C73">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="C74">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="B75">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="C76">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="C77">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B78">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="C79">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="B80">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="C81">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="C82">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="B83">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B84">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="C85">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>84</v>
       </c>
       <c r="B86">
         <v>1455</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="B88">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="B89">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="C90">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="C91">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="C93">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="C94">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="C95">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>94</v>
+      <c r="B96">
+        <v>1750</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+      <c r="C97">
+        <v>2243</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="C98">
+        <v>1328</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="C99">
+        <v>2798</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="C100">
+        <v>1851</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="B101">
+        <v>1346</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="C102">
+        <v>1649</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="C103">
+        <v>1822</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C104">
         <v>2891</v>
@@ -1734,32 +1998,50 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="C105">
+        <v>3244</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="B106">
+        <v>1400</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>103</v>
+      </c>
+      <c r="C107">
+        <v>2005</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>104</v>
+      </c>
+      <c r="C108">
+        <v>1875</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="C109">
+        <v>1390</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="C110">
+        <v>976</v>
       </c>
     </row>
   </sheetData>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Gstelliwang</t>
   </si>
   <si>
-    <t>Gummen</t>
-  </si>
-  <si>
     <t>Gurnigel Restaurant</t>
   </si>
   <si>
@@ -252,9 +249,6 @@
     <t>Raeterichsboden</t>
   </si>
   <si>
-    <t>Reuti</t>
-  </si>
-  <si>
     <t>Rohrmatten</t>
   </si>
   <si>
@@ -354,7 +348,34 @@
     <t>Schaftelouwi</t>
   </si>
   <si>
-    <t>Under Steckli</t>
+    <t>Boozisteinen</t>
+  </si>
+  <si>
+    <t>Wandelhorn</t>
+  </si>
+  <si>
+    <t>Reuti Post</t>
+  </si>
+  <si>
+    <t>Reuti Station</t>
+  </si>
+  <si>
+    <t>Spreitloui Pt 1677</t>
+  </si>
+  <si>
+    <t>Gummen Pt 2005</t>
+  </si>
+  <si>
+    <t>Hinder Steckli</t>
+  </si>
+  <si>
+    <t>Spycher Pt 1439</t>
+  </si>
+  <si>
+    <t>Wetterhorn</t>
+  </si>
+  <si>
+    <t>Parkplatz Rosenlauischlucht</t>
   </si>
 </sst>
 </file>
@@ -838,10 +859,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1164,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,13 +1202,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
         <v>107</v>
-      </c>
-      <c r="B1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1194,18 +1218,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2484</v>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3054</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>3054</v>
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2484</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1329,160 +1353,163 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
+      <c r="A20" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="C20">
-        <v>491</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>567</v>
+        <v>491</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22">
-        <v>2348</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>1430</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24">
-        <v>1426</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>1041</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>1640</v>
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>1041</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27">
-        <v>620</v>
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>1640</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28">
-        <v>787</v>
+        <v>620</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29">
-        <v>582</v>
+        <v>787</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30">
-        <v>1205</v>
+        <v>582</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31">
-        <v>3087</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32">
-        <v>2204</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33">
-        <v>2129</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34">
-        <v>760</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35">
-        <v>1702</v>
+        <v>760</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36">
-        <v>2036</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37">
-        <v>2859</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>36</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>3075</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1527,12 +1554,15 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>114</v>
+      </c>
+      <c r="C45">
+        <v>2005</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46">
         <v>1593</v>
@@ -1540,7 +1570,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47">
         <v>1020</v>
@@ -1548,7 +1578,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48">
         <v>1067</v>
@@ -1556,7 +1586,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49">
         <v>1302</v>
@@ -1564,7 +1594,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50">
         <v>1400</v>
@@ -1572,7 +1602,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51">
         <v>1327</v>
@@ -1580,7 +1610,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52">
         <v>1305</v>
@@ -1588,12 +1618,12 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54">
         <v>1052</v>
@@ -1601,7 +1631,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55">
         <v>2164</v>
@@ -1609,7 +1639,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C56">
         <v>1548</v>
@@ -1617,7 +1647,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C57">
         <v>3035</v>
@@ -1625,7 +1655,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C58">
         <v>2594</v>
@@ -1633,7 +1663,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59">
         <v>280</v>
@@ -1641,7 +1671,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60">
         <v>1827</v>
@@ -1649,7 +1679,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61">
         <v>565</v>
@@ -1657,7 +1687,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C62">
         <v>1597</v>
@@ -1665,7 +1695,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C63">
         <v>673</v>
@@ -1673,7 +1703,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C64">
         <v>797</v>
@@ -1681,7 +1711,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C65">
         <v>1707</v>
@@ -1689,7 +1719,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66">
         <v>2200</v>
@@ -1697,7 +1727,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67">
         <v>600</v>
@@ -1705,7 +1735,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C68">
         <v>691</v>
@@ -1713,7 +1743,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69">
         <v>925</v>
@@ -1721,7 +1751,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C70">
         <v>1020</v>
@@ -1729,7 +1759,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C71">
         <v>2362</v>
@@ -1737,7 +1767,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C72">
         <v>691</v>
@@ -1745,7 +1775,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73">
         <v>1208</v>
@@ -1753,7 +1783,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74">
         <v>2989</v>
@@ -1761,7 +1791,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75">
         <v>1849</v>
@@ -1769,7 +1799,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C76">
         <v>1628</v>
@@ -1777,7 +1807,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C77">
         <v>1863</v>
@@ -1785,15 +1815,15 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>75</v>
-      </c>
-      <c r="B78">
-        <v>2229</v>
+        <v>74</v>
+      </c>
+      <c r="C78">
+        <v>2245</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C79">
         <v>1769</v>
@@ -1801,250 +1831,309 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>77</v>
-      </c>
-      <c r="B80">
-        <v>1060</v>
+        <v>111</v>
+      </c>
+      <c r="C80">
+        <v>1052</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C81">
-        <v>1050</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C82">
-        <v>2969</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>80</v>
-      </c>
-      <c r="B83">
-        <v>1937</v>
+      <c r="A83" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>81</v>
-      </c>
-      <c r="B84">
-        <v>1037</v>
+        <v>77</v>
+      </c>
+      <c r="C84">
+        <v>2969</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>82</v>
-      </c>
-      <c r="C85">
-        <v>2927</v>
+        <v>78</v>
+      </c>
+      <c r="B85">
+        <v>1937</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B86">
-        <v>1455</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C87">
-        <v>2069</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B88">
-        <v>800</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>86</v>
-      </c>
-      <c r="B89">
-        <v>2051</v>
+        <v>82</v>
+      </c>
+      <c r="C89">
+        <v>2069</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>87</v>
-      </c>
-      <c r="C90">
-        <v>1105</v>
+        <v>83</v>
+      </c>
+      <c r="B90">
+        <v>800</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>88</v>
-      </c>
-      <c r="C91">
-        <v>3020</v>
+        <v>84</v>
+      </c>
+      <c r="B91">
+        <v>2051</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>111</v>
+        <v>85</v>
+      </c>
+      <c r="C92">
+        <v>1105</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C93">
-        <v>1863</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C94">
-        <v>3502</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C95">
-        <v>2855</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>92</v>
-      </c>
-      <c r="B96">
-        <v>1750</v>
+        <v>88</v>
+      </c>
+      <c r="C96">
+        <v>3502</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C97">
-        <v>2243</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>94</v>
-      </c>
-      <c r="C98">
-        <v>1328</v>
+        <v>90</v>
+      </c>
+      <c r="B98">
+        <v>1750</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C99">
-        <v>2798</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C100">
-        <v>1851</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>97</v>
+      <c r="A101" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="B101">
-        <v>1346</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C102">
-        <v>1649</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C103">
-        <v>1822</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>100</v>
-      </c>
-      <c r="C104">
-        <v>2891</v>
+        <v>95</v>
+      </c>
+      <c r="B104">
+        <v>1346</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C105">
-        <v>3244</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>102</v>
-      </c>
-      <c r="B106">
-        <v>1400</v>
+        <v>97</v>
+      </c>
+      <c r="C106">
+        <v>1822</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C107">
-        <v>2005</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C108">
-        <v>1875</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C109">
-        <v>1390</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>106</v>
-      </c>
-      <c r="C110">
+        <v>100</v>
+      </c>
+      <c r="B110">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>101</v>
+      </c>
+      <c r="C111">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>103</v>
+      </c>
+      <c r="C113">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>104</v>
+      </c>
+      <c r="C114">
         <v>976</v>
       </c>
     </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117">
+        <v>1358</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:C114">
+    <sortCondition ref="A2:A114"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Augstmatthorn</t>
   </si>
   <si>
-    <t>Baechlisplatti</t>
-  </si>
-  <si>
     <t>Baeren Guttannen</t>
   </si>
   <si>
@@ -376,6 +373,21 @@
   </si>
   <si>
     <t>Parkplatz Rosenlauischlucht</t>
+  </si>
+  <si>
+    <t>Raenfenhorn</t>
+  </si>
+  <si>
+    <t>Baechlisblatti</t>
+  </si>
+  <si>
+    <t>Baechlisblatti Pt 2630</t>
+  </si>
+  <si>
+    <t>Wasserwendi</t>
+  </si>
+  <si>
+    <t>Fuenffingersteck</t>
   </si>
 </sst>
 </file>
@@ -1188,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A89" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,13 +1214,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>106</v>
-      </c>
-      <c r="C1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1282,7 +1294,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="B11">
         <v>2690</v>
@@ -1290,849 +1302,884 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>1057</v>
+        <v>120</v>
+      </c>
+      <c r="B12">
+        <v>2640</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>590</v>
+        <v>2640</v>
+      </c>
+      <c r="C13">
+        <v>1057</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>2401</v>
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>590</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>2094</v>
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>2401</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>792</v>
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>2094</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>1420</v>
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>792</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>1453</v>
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>1420</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
         <v>1406</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21">
         <v>1141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21">
-        <v>491</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22">
-        <v>567</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23">
-        <v>2348</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24">
-        <v>1430</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25">
-        <v>1426</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26">
-        <v>1041</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27">
-        <v>1640</v>
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>1041</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28">
-        <v>620</v>
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <v>1640</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29">
-        <v>787</v>
+        <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30">
-        <v>582</v>
+        <v>787</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>28</v>
+      <c r="A31" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="C31">
-        <v>1205</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C32">
-        <v>3087</v>
+        <v>582</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C33">
-        <v>2204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C34">
-        <v>2129</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C35">
-        <v>760</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C36">
-        <v>1702</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C37">
-        <v>2036</v>
+        <v>760</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C38">
-        <v>2859</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C39">
-        <v>3075</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C40">
-        <v>2098</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C41">
-        <v>2391</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C42">
-        <v>1962</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C43">
-        <v>1302</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C44">
-        <v>2580</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="C45">
-        <v>2005</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C46">
-        <v>1593</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47">
-        <v>1020</v>
+        <v>113</v>
+      </c>
+      <c r="C47">
+        <v>2005</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C48">
-        <v>1067</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49">
-        <v>1302</v>
+        <v>42</v>
+      </c>
+      <c r="B49">
+        <v>1020</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50">
-        <v>1400</v>
+        <v>43</v>
+      </c>
+      <c r="C50">
+        <v>1067</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51">
-        <v>1327</v>
+        <v>44</v>
+      </c>
+      <c r="C51">
+        <v>1302</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B52">
-        <v>1305</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="B53">
+        <v>1327</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B54">
-        <v>1052</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55">
-        <v>2164</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56">
-        <v>1548</v>
+      <c r="A56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56">
+        <v>2440</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57">
-        <v>3035</v>
+        <v>49</v>
+      </c>
+      <c r="B57">
+        <v>1052</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58">
-        <v>2594</v>
+        <v>50</v>
+      </c>
+      <c r="B58">
+        <v>2164</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59">
-        <v>280</v>
+        <v>51</v>
+      </c>
+      <c r="C59">
+        <v>1548</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C60">
-        <v>1827</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B61">
-        <v>565</v>
+        <v>53</v>
+      </c>
+      <c r="C61">
+        <v>2594</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62">
-        <v>1597</v>
+        <v>54</v>
+      </c>
+      <c r="B62">
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C63">
-        <v>673</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64">
-        <v>797</v>
+        <v>56</v>
+      </c>
+      <c r="B64">
+        <v>565</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C65">
-        <v>1707</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>62</v>
-      </c>
-      <c r="B66">
-        <v>2200</v>
+        <v>58</v>
+      </c>
+      <c r="C66">
+        <v>673</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C67">
-        <v>600</v>
+        <v>797</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C68">
-        <v>691</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B69">
-        <v>925</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C70">
-        <v>1020</v>
+        <v>600</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C71">
-        <v>2362</v>
+        <v>691</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72">
-        <v>691</v>
+        <v>64</v>
+      </c>
+      <c r="B72">
+        <v>925</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C73">
-        <v>1208</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C74">
-        <v>2989</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>71</v>
-      </c>
-      <c r="B75">
-        <v>1849</v>
+        <v>67</v>
+      </c>
+      <c r="C75">
+        <v>691</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C76">
-        <v>1628</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C77">
-        <v>1863</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>74</v>
-      </c>
-      <c r="C78">
-        <v>2245</v>
+        <v>70</v>
+      </c>
+      <c r="B78">
+        <v>1849</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C79">
-        <v>1769</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="C80">
-        <v>1052</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>112</v>
+      <c r="A81" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="C81">
-        <v>1065</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C82">
-        <v>1050</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>108</v>
+      <c r="A83" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83">
+        <v>3259</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C84">
-        <v>2969</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>78</v>
-      </c>
-      <c r="B85">
-        <v>1937</v>
+        <v>110</v>
+      </c>
+      <c r="C85">
+        <v>1052</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>79</v>
-      </c>
-      <c r="B86">
-        <v>1037</v>
+        <v>111</v>
+      </c>
+      <c r="C86">
+        <v>1065</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C87">
-        <v>2927</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>81</v>
-      </c>
-      <c r="B88">
-        <v>1455</v>
+      <c r="A88" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C89">
-        <v>2069</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B90">
-        <v>800</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B91">
-        <v>2051</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C92">
-        <v>1105</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>86</v>
-      </c>
-      <c r="C93">
-        <v>3020</v>
+        <v>80</v>
+      </c>
+      <c r="B93">
+        <v>1455</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C94">
-        <v>1677</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>87</v>
-      </c>
-      <c r="C95">
-        <v>1863</v>
+        <v>82</v>
+      </c>
+      <c r="B95">
+        <v>800</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>88</v>
-      </c>
-      <c r="C96">
-        <v>3502</v>
+        <v>83</v>
+      </c>
+      <c r="B96">
+        <v>2051</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C97">
-        <v>2855</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>90</v>
-      </c>
-      <c r="B98">
-        <v>1750</v>
+        <v>85</v>
+      </c>
+      <c r="C98">
+        <v>3020</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C99">
-        <v>2326</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>92</v>
-      </c>
-      <c r="C100">
-        <v>1328</v>
+        <v>115</v>
+      </c>
+      <c r="B100">
+        <v>1439</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B101">
-        <v>2440</v>
+      <c r="A101" t="s">
+        <v>86</v>
+      </c>
+      <c r="C101">
+        <v>1863</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C102">
-        <v>2798</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C103">
-        <v>1851</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B104">
-        <v>1346</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C105">
-        <v>1649</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C106">
-        <v>1822</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C107">
-        <v>2303</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C108">
-        <v>2891</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>99</v>
-      </c>
-      <c r="C109">
-        <v>3244</v>
+        <v>94</v>
+      </c>
+      <c r="B109">
+        <v>1346</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>100</v>
-      </c>
-      <c r="B110">
-        <v>1400</v>
+        <v>95</v>
+      </c>
+      <c r="C110">
+        <v>1649</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C111">
-        <v>2005</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C112">
-        <v>1875</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C113">
-        <v>1390</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C114">
-        <v>976</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>116</v>
-      </c>
-      <c r="B115">
-        <v>1439</v>
+        <v>97</v>
+      </c>
+      <c r="C115">
+        <v>2891</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C116">
-        <v>3690</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C117">
-        <v>1358</v>
+      <c r="A117" t="s">
+        <v>99</v>
+      </c>
+      <c r="B117">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>100</v>
+      </c>
+      <c r="C118">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>101</v>
+      </c>
+      <c r="C119">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>102</v>
+      </c>
+      <c r="C120">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>103</v>
+      </c>
+      <c r="C121">
+        <v>976</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C114">
-    <sortCondition ref="A2:A114"/>
+  <sortState ref="A2:C121">
+    <sortCondition ref="A2:A121"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>Fuenffingersteck</t>
+  </si>
+  <si>
+    <t>Gwaechtenhorn</t>
   </si>
 </sst>
 </file>
@@ -1200,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A89" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2177,6 +2180,14 @@
         <v>976</v>
       </c>
     </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122">
+        <v>3420</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C121">
     <sortCondition ref="A2:A121"/>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -36,9 +36,6 @@
     <t>Alpbaechli</t>
   </si>
   <si>
-    <t>Alpbruecke</t>
-  </si>
-  <si>
     <t>alte Triftbruecke</t>
   </si>
   <si>
@@ -391,6 +388,9 @@
   </si>
   <si>
     <t>Gwaechtenhorn</t>
+  </si>
+  <si>
+    <t>Alpbruecke Wegweiser</t>
   </si>
 </sst>
 </file>
@@ -1205,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,13 +1217,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
         <v>104</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1265,7 +1265,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="B7">
         <v>1531</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>1757</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>600</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>2136</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11">
         <v>2690</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12">
         <v>2640</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>2640</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>590</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>2401</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>2094</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>792</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>1420</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>1453</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>1406</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21">
         <v>1141</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22">
         <v>491</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23">
         <v>567</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24">
         <v>2348</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25">
         <v>1430</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>1426</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>1041</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28">
         <v>1640</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29">
         <v>620</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30">
         <v>787</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C31">
         <v>2993</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32">
         <v>582</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33">
         <v>1205</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34">
         <v>3087</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>2204</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36">
         <v>2129</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37">
         <v>760</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38">
         <v>1702</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39">
         <v>2036</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40">
         <v>2859</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41">
         <v>3075</v>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>2098</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43">
         <v>2391</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44">
         <v>1962</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45">
         <v>1302</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46">
         <v>2580</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C47">
         <v>2005</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C48">
         <v>1593</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49">
         <v>1020</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C50">
         <v>1067</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51">
         <v>1302</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52">
         <v>1400</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53">
         <v>1327</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54">
         <v>1305</v>
@@ -1652,12 +1652,12 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B56">
         <v>2440</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57">
         <v>1052</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B58">
         <v>2164</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59">
         <v>1548</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60">
         <v>3035</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C61">
         <v>2594</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B62">
         <v>280</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C63">
         <v>1827</v>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B64">
         <v>565</v>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C65">
         <v>1597</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C66">
         <v>673</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C67">
         <v>797</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C68">
         <v>1707</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B69">
         <v>2200</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C70">
         <v>600</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C71">
         <v>691</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B72">
         <v>925</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C73">
         <v>1020</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C74">
         <v>2362</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C75">
         <v>691</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C76">
         <v>1208</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C77">
         <v>2989</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B78">
         <v>1849</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C79">
         <v>1628</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C80">
         <v>1863</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C81">
         <v>1358</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C82">
         <v>2245</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C83">
         <v>3259</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C84">
         <v>1769</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C85">
         <v>1052</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C86">
         <v>1065</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C87">
         <v>1050</v>
@@ -1913,12 +1913,12 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C89">
         <v>2969</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B90">
         <v>1937</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B91">
         <v>1037</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C92">
         <v>2927</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B93">
         <v>1455</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C94">
         <v>2069</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B95">
         <v>800</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B96">
         <v>2051</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C97">
         <v>1105</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C98">
         <v>3020</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C99">
         <v>1677</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B100">
         <v>1439</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C101">
         <v>1863</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C102">
         <v>3502</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C103">
         <v>2855</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B104">
         <v>1750</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C105">
         <v>2326</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C106">
         <v>1328</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C107">
         <v>2798</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C108">
         <v>1851</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B109">
         <v>1346</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C110">
         <v>1649</v>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C111">
         <v>1822</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C112">
         <v>2303</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C113">
         <v>1217</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C114">
         <v>3690</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C115">
         <v>2891</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C116">
         <v>3244</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B117">
         <v>1400</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C118">
         <v>2005</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C119">
         <v>1875</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C120">
         <v>1390</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C121">
         <v>976</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C122">
         <v>3420</v>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -394,6 +394,12 @@
   </si>
   <si>
     <t>Grimselpass</t>
+  </si>
+  <si>
+    <t>Seilialp</t>
+  </si>
+  <si>
+    <t>Bantiger</t>
   </si>
 </sst>
 </file>
@@ -1206,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,865 +1349,881 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="B16">
-        <v>2094</v>
+        <v>983</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>792</v>
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>2094</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18">
-        <v>1420</v>
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>792</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19">
-        <v>1453</v>
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>1420</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>1406</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>1141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22">
-        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23">
-        <v>567</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24">
-        <v>2348</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25">
-        <v>1430</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26">
-        <v>1426</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27">
-        <v>1041</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28">
-        <v>1640</v>
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>1041</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29">
-        <v>620</v>
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>1640</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>24</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>787</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>2993</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32">
-        <v>582</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33">
-        <v>1205</v>
+        <v>582</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34">
-        <v>3087</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35">
-        <v>2204</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36">
-        <v>2129</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37">
-        <v>760</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38">
-        <v>1702</v>
+        <v>760</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39">
-        <v>2036</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40">
-        <v>2859</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41">
-        <v>3075</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42">
-        <v>2098</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="C43">
-        <v>2391</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C44">
-        <v>1962</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C45">
-        <v>1302</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C46">
-        <v>2580</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="C47">
-        <v>2005</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48">
-        <v>1593</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49">
-        <v>1020</v>
+        <v>112</v>
+      </c>
+      <c r="C49">
+        <v>2005</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C50">
-        <v>1067</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51">
-        <v>1302</v>
+        <v>41</v>
+      </c>
+      <c r="B51">
+        <v>1020</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52">
-        <v>1400</v>
+        <v>122</v>
+      </c>
+      <c r="C52">
+        <v>3420</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>45</v>
-      </c>
-      <c r="B53">
-        <v>1327</v>
+        <v>42</v>
+      </c>
+      <c r="C53">
+        <v>1067</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54">
-        <v>1305</v>
+        <v>43</v>
+      </c>
+      <c r="C54">
+        <v>1302</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="B55">
+        <v>1400</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>113</v>
+      <c r="A56" t="s">
+        <v>45</v>
       </c>
       <c r="B56">
-        <v>2440</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B57">
-        <v>1052</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58">
-        <v>2164</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>50</v>
-      </c>
-      <c r="C59">
-        <v>1548</v>
+      <c r="A59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59">
+        <v>2440</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60">
-        <v>3035</v>
+        <v>48</v>
+      </c>
+      <c r="B60">
+        <v>1052</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61">
-        <v>2594</v>
+        <v>49</v>
+      </c>
+      <c r="B61">
+        <v>2164</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>53</v>
-      </c>
-      <c r="B62">
-        <v>280</v>
+        <v>50</v>
+      </c>
+      <c r="C62">
+        <v>1548</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C63">
-        <v>1827</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>55</v>
-      </c>
-      <c r="B64">
-        <v>565</v>
+        <v>52</v>
+      </c>
+      <c r="C64">
+        <v>2594</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65">
-        <v>1597</v>
+        <v>53</v>
+      </c>
+      <c r="B65">
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C66">
-        <v>673</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>58</v>
-      </c>
-      <c r="C67">
-        <v>797</v>
+        <v>55</v>
+      </c>
+      <c r="B67">
+        <v>565</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C68">
-        <v>1707</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>60</v>
-      </c>
-      <c r="B69">
-        <v>2200</v>
+        <v>57</v>
+      </c>
+      <c r="C69">
+        <v>673</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C70">
-        <v>600</v>
+        <v>797</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C71">
-        <v>691</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B72">
-        <v>925</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C73">
-        <v>1020</v>
+        <v>600</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C74">
-        <v>2362</v>
+        <v>691</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>66</v>
-      </c>
-      <c r="C75">
-        <v>691</v>
+        <v>63</v>
+      </c>
+      <c r="B75">
+        <v>925</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C76">
-        <v>1208</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C77">
-        <v>2989</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>69</v>
-      </c>
-      <c r="B78">
-        <v>1849</v>
+        <v>66</v>
+      </c>
+      <c r="C78">
+        <v>691</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C79">
-        <v>1628</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C80">
-        <v>1863</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C81">
-        <v>1358</v>
+      <c r="A81" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81">
+        <v>1849</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C82">
-        <v>2245</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="C83">
-        <v>3259</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>73</v>
+      <c r="A84" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C84">
-        <v>1769</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="C85">
-        <v>1052</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C86">
-        <v>1065</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C87">
-        <v>1050</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>106</v>
+      <c r="A88" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88">
+        <v>1052</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="C89">
-        <v>2969</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>76</v>
-      </c>
-      <c r="B90">
-        <v>1937</v>
+        <v>74</v>
+      </c>
+      <c r="C90">
+        <v>1050</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>77</v>
-      </c>
-      <c r="B91">
-        <v>1037</v>
+      <c r="A91" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C92">
-        <v>2927</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B93">
-        <v>1455</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>80</v>
-      </c>
-      <c r="C94">
-        <v>2069</v>
+        <v>77</v>
+      </c>
+      <c r="B94">
+        <v>1037</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>81</v>
-      </c>
-      <c r="B95">
-        <v>800</v>
+        <v>78</v>
+      </c>
+      <c r="C95">
+        <v>2927</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B96">
-        <v>2051</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="C97">
-        <v>1105</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C98">
-        <v>3020</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>111</v>
-      </c>
-      <c r="C99">
-        <v>1677</v>
+        <v>81</v>
+      </c>
+      <c r="B99">
+        <v>800</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B100">
-        <v>1439</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C101">
-        <v>1863</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C102">
-        <v>3502</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C103">
-        <v>2855</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B104">
-        <v>1750</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C105">
-        <v>2326</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C106">
-        <v>1328</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C107">
-        <v>2798</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>92</v>
-      </c>
-      <c r="C108">
-        <v>1851</v>
+        <v>88</v>
+      </c>
+      <c r="B108">
+        <v>1750</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>93</v>
-      </c>
-      <c r="B109">
-        <v>1346</v>
+        <v>89</v>
+      </c>
+      <c r="C109">
+        <v>2326</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C110">
-        <v>1649</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C111">
-        <v>1822</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C112">
-        <v>2303</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>120</v>
-      </c>
-      <c r="C113">
-        <v>1217</v>
+        <v>93</v>
+      </c>
+      <c r="B113">
+        <v>1346</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C114">
-        <v>3690</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C115">
-        <v>2891</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C116">
-        <v>3244</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>98</v>
-      </c>
-      <c r="B117">
-        <v>1400</v>
+        <v>120</v>
+      </c>
+      <c r="C117">
+        <v>1217</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C118">
-        <v>2005</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C119">
-        <v>1875</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C120">
-        <v>1390</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>102</v>
-      </c>
-      <c r="C121">
-        <v>976</v>
+        <v>98</v>
+      </c>
+      <c r="B121">
+        <v>1400</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C122">
-        <v>3420</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C123">
-        <v>2164</v>
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>101</v>
+      </c>
+      <c r="C124">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>102</v>
+      </c>
+      <c r="C125">
+        <v>976</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C121">
-    <sortCondition ref="A2:A121"/>
+  <sortState ref="A2:C125">
+    <sortCondition ref="A2:A125"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -400,6 +400,21 @@
   </si>
   <si>
     <t>Bantiger</t>
+  </si>
+  <si>
+    <t>Gelmerhuette</t>
+  </si>
+  <si>
+    <t>Ofenhoren</t>
+  </si>
+  <si>
+    <t>Brienzwiler Bahnhof</t>
+  </si>
+  <si>
+    <t>Ze Hiischere</t>
+  </si>
+  <si>
+    <t>Ober Flue</t>
   </si>
 </sst>
 </file>
@@ -1212,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,705 +1540,745 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="C38">
-        <v>760</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39">
-        <v>1702</v>
+        <v>760</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40">
-        <v>2036</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41">
-        <v>2859</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42">
-        <v>3075</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="C43">
-        <v>2164</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="C44">
-        <v>2098</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45">
-        <v>2391</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46">
-        <v>1962</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C47">
-        <v>1302</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C48">
-        <v>2580</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="C49">
-        <v>2005</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="C50">
-        <v>1593</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51">
-        <v>1020</v>
+        <v>40</v>
+      </c>
+      <c r="C51">
+        <v>1593</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52">
-        <v>3420</v>
+        <v>41</v>
+      </c>
+      <c r="B52">
+        <v>1020</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="C53">
-        <v>1067</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C54">
-        <v>1302</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55">
-        <v>1400</v>
+        <v>43</v>
+      </c>
+      <c r="C55">
+        <v>1302</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56">
-        <v>1327</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B57">
-        <v>1305</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>2440</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>48</v>
-      </c>
-      <c r="B60">
-        <v>1052</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B61">
-        <v>2164</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>50</v>
-      </c>
-      <c r="C62">
-        <v>1548</v>
+        <v>49</v>
+      </c>
+      <c r="B62">
+        <v>2164</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C63">
-        <v>3035</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C64">
-        <v>2594</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>53</v>
-      </c>
-      <c r="B65">
-        <v>280</v>
+        <v>52</v>
+      </c>
+      <c r="C65">
+        <v>2594</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66">
-        <v>1827</v>
+        <v>53</v>
+      </c>
+      <c r="B66">
+        <v>280</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67">
-        <v>565</v>
+        <v>54</v>
+      </c>
+      <c r="C67">
+        <v>1827</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68">
-        <v>1597</v>
+        <v>55</v>
+      </c>
+      <c r="B68">
+        <v>565</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C69">
-        <v>673</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C70">
-        <v>797</v>
+        <v>673</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C71">
-        <v>1707</v>
+        <v>797</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>60</v>
-      </c>
-      <c r="B72">
-        <v>2200</v>
+        <v>59</v>
+      </c>
+      <c r="C72">
+        <v>1707</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>61</v>
-      </c>
-      <c r="C73">
-        <v>600</v>
+        <v>60</v>
+      </c>
+      <c r="B73">
+        <v>2200</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C74">
-        <v>691</v>
+        <v>600</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>63</v>
-      </c>
-      <c r="B75">
-        <v>925</v>
+        <v>62</v>
+      </c>
+      <c r="C75">
+        <v>691</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>64</v>
-      </c>
-      <c r="C76">
-        <v>1020</v>
+        <v>63</v>
+      </c>
+      <c r="B76">
+        <v>925</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C77">
-        <v>2362</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C78">
-        <v>691</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C79">
-        <v>1208</v>
+        <v>691</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C80">
-        <v>2989</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>69</v>
-      </c>
-      <c r="B81">
-        <v>1849</v>
+        <v>68</v>
+      </c>
+      <c r="C81">
+        <v>2989</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>70</v>
-      </c>
-      <c r="C82">
-        <v>1628</v>
+        <v>69</v>
+      </c>
+      <c r="B82">
+        <v>1849</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="C83">
-        <v>1863</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>116</v>
+      <c r="A84" t="s">
+        <v>70</v>
       </c>
       <c r="C84">
-        <v>1358</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C85">
-        <v>2245</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>117</v>
+      <c r="A86" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C86">
-        <v>3259</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C87">
-        <v>1769</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C88">
-        <v>1052</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="C89">
-        <v>1065</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="C90">
-        <v>1050</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>106</v>
+      <c r="A91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91">
+        <v>1065</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C92">
-        <v>2969</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>76</v>
-      </c>
-      <c r="B93">
-        <v>1937</v>
+      <c r="A93" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>77</v>
-      </c>
-      <c r="B94">
-        <v>1037</v>
+        <v>75</v>
+      </c>
+      <c r="C94">
+        <v>2969</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>78</v>
-      </c>
-      <c r="C95">
-        <v>2927</v>
+        <v>76</v>
+      </c>
+      <c r="B95">
+        <v>1937</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B96">
-        <v>1455</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="C97">
-        <v>1359</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>80</v>
-      </c>
-      <c r="C98">
-        <v>2069</v>
+        <v>79</v>
+      </c>
+      <c r="B98">
+        <v>1455</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>81</v>
-      </c>
-      <c r="B99">
-        <v>800</v>
+        <v>125</v>
+      </c>
+      <c r="C99">
+        <v>1359</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>82</v>
-      </c>
-      <c r="B100">
-        <v>2051</v>
+        <v>80</v>
+      </c>
+      <c r="C100">
+        <v>2069</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>83</v>
-      </c>
-      <c r="C101">
-        <v>1105</v>
+        <v>81</v>
+      </c>
+      <c r="B101">
+        <v>800</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>84</v>
-      </c>
-      <c r="C102">
-        <v>3020</v>
+        <v>82</v>
+      </c>
+      <c r="B102">
+        <v>2051</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C103">
-        <v>1677</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>114</v>
-      </c>
-      <c r="B104">
-        <v>1439</v>
+        <v>84</v>
+      </c>
+      <c r="C104">
+        <v>3020</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C105">
-        <v>1863</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>86</v>
-      </c>
-      <c r="C106">
-        <v>3502</v>
+        <v>114</v>
+      </c>
+      <c r="B106">
+        <v>1439</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C107">
-        <v>2855</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>88</v>
-      </c>
-      <c r="B108">
-        <v>1750</v>
+        <v>86</v>
+      </c>
+      <c r="C108">
+        <v>3502</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C109">
-        <v>2326</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>90</v>
-      </c>
-      <c r="C110">
-        <v>1328</v>
+        <v>88</v>
+      </c>
+      <c r="B110">
+        <v>1750</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C111">
-        <v>2798</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C112">
-        <v>1851</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>93</v>
-      </c>
-      <c r="B113">
-        <v>1346</v>
+        <v>91</v>
+      </c>
+      <c r="C113">
+        <v>2798</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C114">
-        <v>1649</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>95</v>
-      </c>
-      <c r="C115">
-        <v>1822</v>
+        <v>93</v>
+      </c>
+      <c r="B115">
+        <v>1346</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C116">
-        <v>2303</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C117">
-        <v>1217</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C118">
-        <v>3690</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C119">
-        <v>2891</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C120">
-        <v>3244</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>98</v>
-      </c>
-      <c r="B121">
-        <v>1400</v>
+        <v>96</v>
+      </c>
+      <c r="C121">
+        <v>2891</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C122">
-        <v>2005</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>100</v>
-      </c>
-      <c r="C123">
-        <v>1875</v>
+        <v>98</v>
+      </c>
+      <c r="B123">
+        <v>1400</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C124">
-        <v>1390</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>100</v>
+      </c>
+      <c r="C125">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>101</v>
+      </c>
+      <c r="C126">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>102</v>
       </c>
-      <c r="C125">
+      <c r="C127">
         <v>976</v>
       </c>
     </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="C130">
+        <v>1677</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:C125">
-    <sortCondition ref="A2:A125"/>
+  <sortState ref="A2:C127">
+    <sortCondition ref="A2:A127"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -415,6 +415,12 @@
   </si>
   <si>
     <t>Ober Flue</t>
+  </si>
+  <si>
+    <t>Spreitloui Pt 1370</t>
+  </si>
+  <si>
+    <t>Aerlen Pt 2130</t>
   </si>
 </sst>
 </file>
@@ -1227,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,1028 +1263,1044 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="C3">
-        <v>3054</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2484</v>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3054</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>615</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2484</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>602</v>
+        <v>615</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7">
-        <v>1531</v>
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>602</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>1757</v>
+        <v>123</v>
+      </c>
+      <c r="B8">
+        <v>1531</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>600</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>2136</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11">
-        <v>2690</v>
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>2136</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12">
-        <v>2640</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="B13">
         <v>2640</v>
       </c>
-      <c r="C13">
-        <v>1057</v>
-      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>590</v>
+        <v>2640</v>
+      </c>
+      <c r="C14">
+        <v>1057</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>2401</v>
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>590</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16">
-        <v>983</v>
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>2401</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="B17">
-        <v>2094</v>
+        <v>983</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>792</v>
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>2094</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>1420</v>
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>792</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20">
-        <v>1453</v>
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>1420</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>1406</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>1141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23">
-        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24">
-        <v>567</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25">
-        <v>2348</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26">
-        <v>1430</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27">
-        <v>1426</v>
+        <v>129</v>
+      </c>
+      <c r="B27">
+        <v>574</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28">
-        <v>1041</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29">
-        <v>1640</v>
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>1426</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C30">
-        <v>620</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31">
-        <v>787</v>
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>1640</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>121</v>
+      <c r="A32" t="s">
+        <v>23</v>
       </c>
       <c r="C32">
-        <v>2993</v>
+        <v>620</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33">
-        <v>582</v>
+        <v>787</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>26</v>
+      <c r="A34" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="C34">
-        <v>1205</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C35">
-        <v>3087</v>
+        <v>582</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C36">
-        <v>2204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C37">
-        <v>2129</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="C38">
-        <v>2412</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39">
-        <v>760</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="C40">
-        <v>1702</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C41">
-        <v>2036</v>
+        <v>760</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C42">
-        <v>2859</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C43">
-        <v>3075</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="C44">
-        <v>2164</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C45">
-        <v>2098</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="C46">
-        <v>2391</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C47">
-        <v>1962</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C48">
-        <v>1302</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C49">
-        <v>2580</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="C50">
-        <v>2005</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51">
-        <v>1593</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52">
-        <v>1020</v>
+        <v>112</v>
+      </c>
+      <c r="C52">
+        <v>2005</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="C53">
-        <v>3420</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54">
-        <v>1067</v>
+        <v>41</v>
+      </c>
+      <c r="B54">
+        <v>1020</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="C55">
-        <v>1302</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>44</v>
-      </c>
-      <c r="B56">
-        <v>1400</v>
+        <v>42</v>
+      </c>
+      <c r="C56">
+        <v>1067</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>45</v>
-      </c>
-      <c r="B57">
-        <v>1327</v>
+        <v>43</v>
+      </c>
+      <c r="C57">
+        <v>1302</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B58">
-        <v>1305</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="B59">
+        <v>1327</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>113</v>
+      <c r="A60" t="s">
+        <v>46</v>
       </c>
       <c r="B60">
-        <v>2440</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61">
-        <v>1052</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>49</v>
+      <c r="A62" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B62">
-        <v>2164</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63">
-        <v>1548</v>
+        <v>48</v>
+      </c>
+      <c r="B63">
+        <v>1052</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>51</v>
-      </c>
-      <c r="C64">
-        <v>3035</v>
+        <v>49</v>
+      </c>
+      <c r="B64">
+        <v>2164</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C65">
-        <v>2594</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>53</v>
-      </c>
-      <c r="B66">
-        <v>280</v>
+        <v>51</v>
+      </c>
+      <c r="C66">
+        <v>3035</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C67">
-        <v>1827</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B68">
-        <v>565</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C69">
-        <v>1597</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70">
-        <v>673</v>
+        <v>55</v>
+      </c>
+      <c r="B70">
+        <v>565</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C71">
-        <v>797</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C72">
-        <v>1707</v>
+        <v>673</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>60</v>
-      </c>
-      <c r="B73">
-        <v>2200</v>
+        <v>58</v>
+      </c>
+      <c r="C73">
+        <v>797</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C74">
-        <v>600</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>62</v>
-      </c>
-      <c r="C75">
-        <v>691</v>
+        <v>60</v>
+      </c>
+      <c r="B75">
+        <v>2200</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>63</v>
-      </c>
-      <c r="B76">
-        <v>925</v>
+        <v>61</v>
+      </c>
+      <c r="C76">
+        <v>600</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C77">
-        <v>1020</v>
+        <v>691</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>65</v>
-      </c>
-      <c r="C78">
-        <v>2362</v>
+        <v>63</v>
+      </c>
+      <c r="B78">
+        <v>925</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C79">
-        <v>691</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C80">
-        <v>1208</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C81">
-        <v>2989</v>
+        <v>691</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>69</v>
-      </c>
-      <c r="B82">
-        <v>1849</v>
+        <v>131</v>
+      </c>
+      <c r="C82">
+        <v>1677</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="C83">
-        <v>2949</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C84">
-        <v>1628</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C85">
-        <v>1863</v>
+        <v>69</v>
+      </c>
+      <c r="B85">
+        <v>1849</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>116</v>
+      <c r="A86" t="s">
+        <v>128</v>
       </c>
       <c r="C86">
-        <v>1358</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C87">
-        <v>2245</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="C88">
-        <v>3259</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>73</v>
+      <c r="A89" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C89">
-        <v>1769</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="C90">
-        <v>1052</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C91">
-        <v>1065</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C92">
-        <v>1050</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>106</v>
+      <c r="A93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93">
+        <v>1052</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="C94">
-        <v>2969</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>76</v>
-      </c>
-      <c r="B95">
-        <v>1937</v>
+        <v>74</v>
+      </c>
+      <c r="C95">
+        <v>1050</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>77</v>
-      </c>
-      <c r="B96">
-        <v>1037</v>
+      <c r="A96" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C97">
-        <v>2927</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B98">
-        <v>1455</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>125</v>
-      </c>
-      <c r="C99">
-        <v>1359</v>
+        <v>77</v>
+      </c>
+      <c r="B99">
+        <v>1037</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C100">
-        <v>2069</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B101">
-        <v>800</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>82</v>
-      </c>
-      <c r="B102">
-        <v>2051</v>
+        <v>125</v>
+      </c>
+      <c r="C102">
+        <v>1359</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C103">
-        <v>1105</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>84</v>
-      </c>
-      <c r="C104">
-        <v>3020</v>
+        <v>81</v>
+      </c>
+      <c r="B104">
+        <v>800</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>111</v>
-      </c>
-      <c r="C105">
-        <v>1677</v>
+        <v>82</v>
+      </c>
+      <c r="B105">
+        <v>2051</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>114</v>
-      </c>
-      <c r="B106">
-        <v>1439</v>
+        <v>83</v>
+      </c>
+      <c r="C106">
+        <v>1105</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C107">
-        <v>1863</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>86</v>
+      <c r="A108" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C108">
-        <v>3502</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C109">
-        <v>2855</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B110">
-        <v>1750</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C111">
-        <v>2326</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C112">
-        <v>1328</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C113">
-        <v>2798</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>92</v>
-      </c>
-      <c r="C114">
-        <v>1851</v>
+        <v>88</v>
+      </c>
+      <c r="B114">
+        <v>1750</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>93</v>
-      </c>
-      <c r="B115">
-        <v>1346</v>
+        <v>89</v>
+      </c>
+      <c r="C115">
+        <v>2326</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C116">
-        <v>1649</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C117">
-        <v>1822</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C118">
-        <v>2303</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>120</v>
-      </c>
-      <c r="C119">
-        <v>1217</v>
+        <v>93</v>
+      </c>
+      <c r="B119">
+        <v>1346</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C120">
-        <v>3690</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C121">
-        <v>2891</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C122">
-        <v>3244</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>98</v>
-      </c>
-      <c r="B123">
-        <v>1400</v>
+        <v>120</v>
+      </c>
+      <c r="C123">
+        <v>1217</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C124">
-        <v>2005</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C125">
-        <v>1875</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C126">
-        <v>1390</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>102</v>
-      </c>
-      <c r="C127">
-        <v>976</v>
+        <v>98</v>
+      </c>
+      <c r="B127">
+        <v>1400</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>129</v>
-      </c>
-      <c r="B128">
-        <v>574</v>
+        <v>99</v>
+      </c>
+      <c r="C128">
+        <v>2005</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>130</v>
+      <c r="A129" t="s">
+        <v>100</v>
       </c>
       <c r="C129">
-        <v>1079</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="C130">
-        <v>1677</v>
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C131">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>102</v>
+      </c>
+      <c r="C132">
+        <v>976</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C127">
-    <sortCondition ref="A2:A127"/>
+  <sortState ref="A2:C132">
+    <sortCondition ref="A2:A132"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -421,6 +421,12 @@
   </si>
   <si>
     <t>Aerlen Pt 2130</t>
+  </si>
+  <si>
+    <t>Wart</t>
+  </si>
+  <si>
+    <t>Uratstock</t>
   </si>
 </sst>
 </file>
@@ -1233,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2180,127 +2186,143 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="C118">
-        <v>1851</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>93</v>
-      </c>
-      <c r="B119">
-        <v>1346</v>
+        <v>92</v>
+      </c>
+      <c r="C119">
+        <v>1851</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>94</v>
-      </c>
-      <c r="C120">
-        <v>1649</v>
+        <v>93</v>
+      </c>
+      <c r="B120">
+        <v>1346</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C121">
-        <v>1822</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C122">
-        <v>2303</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C123">
-        <v>1217</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C124">
-        <v>3690</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C125">
-        <v>2891</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C126">
-        <v>3244</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>98</v>
-      </c>
-      <c r="B127">
-        <v>1400</v>
+        <v>96</v>
+      </c>
+      <c r="C127">
+        <v>2891</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C128">
-        <v>2005</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>100</v>
-      </c>
-      <c r="C129">
-        <v>1875</v>
+        <v>98</v>
+      </c>
+      <c r="B129">
+        <v>1400</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C130">
-        <v>1390</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>130</v>
+      <c r="A131" t="s">
+        <v>100</v>
       </c>
       <c r="C131">
-        <v>1079</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>101</v>
+      </c>
+      <c r="C132">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C133">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>102</v>
       </c>
-      <c r="C132">
+      <c r="C134">
         <v>976</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C132">
-    <sortCondition ref="A2:A132"/>
+  <sortState ref="A2:C134">
+    <sortCondition ref="A2:A134"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -427,6 +427,21 @@
   </si>
   <si>
     <t>Uratstock</t>
+  </si>
+  <si>
+    <t>Wenden Pt. 1945</t>
+  </si>
+  <si>
+    <t>Guttannen Sonnseite</t>
+  </si>
+  <si>
+    <t>Maehrenhorn</t>
+  </si>
+  <si>
+    <t>Dornacherstrasse</t>
+  </si>
+  <si>
+    <t>Brandlammhorn Ostgipfel</t>
   </si>
 </sst>
 </file>
@@ -1239,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2320,6 +2335,46 @@
         <v>976</v>
       </c>
     </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="C135">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C136">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="C137">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="C138">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C139">
+        <v>3089</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C134">
     <sortCondition ref="A2:A134"/>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -442,6 +442,9 @@
   </si>
   <si>
     <t>Brandlammhorn Ostgipfel</t>
+  </si>
+  <si>
+    <t>Planalp</t>
   </si>
 </sst>
 </file>
@@ -1254,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+      <selection activeCell="L132" sqref="L132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2375,6 +2378,14 @@
         <v>3089</v>
       </c>
     </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="C140">
+        <v>1341</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C134">
     <sortCondition ref="A2:A134"/>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -445,6 +445,9 @@
   </si>
   <si>
     <t>Planalp</t>
+  </si>
+  <si>
+    <t>Haslizentrum</t>
   </si>
 </sst>
 </file>
@@ -1257,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="L132" sqref="L132"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,453 +1468,453 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>17</v>
+      <c r="A25" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="C25">
-        <v>567</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26">
-        <v>2348</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27">
-        <v>574</v>
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>2348</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28">
-        <v>1430</v>
+        <v>129</v>
+      </c>
+      <c r="B28">
+        <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29">
-        <v>1426</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30">
-        <v>1041</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31">
-        <v>1640</v>
+        <v>139</v>
+      </c>
+      <c r="C31">
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C32">
-        <v>620</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33">
-        <v>787</v>
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>1640</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>121</v>
+      <c r="A34" t="s">
+        <v>23</v>
       </c>
       <c r="C34">
-        <v>2993</v>
+        <v>620</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35">
-        <v>582</v>
+        <v>787</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>26</v>
+      <c r="A36" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="C36">
-        <v>1205</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C37">
-        <v>3087</v>
+        <v>582</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C38">
-        <v>2204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C39">
-        <v>2129</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="C40">
-        <v>2412</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41">
-        <v>760</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="C42">
-        <v>1702</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C43">
-        <v>2036</v>
+        <v>760</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C44">
-        <v>2859</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C45">
-        <v>3075</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="C46">
-        <v>2164</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C47">
-        <v>2098</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="C48">
-        <v>2391</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C49">
-        <v>1962</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C50">
-        <v>1302</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C51">
-        <v>2580</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="C52">
-        <v>2005</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C53">
-        <v>1593</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54">
-        <v>1020</v>
+        <v>112</v>
+      </c>
+      <c r="C54">
+        <v>2005</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="C55">
-        <v>3420</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>42</v>
+      <c r="A56" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="C56">
-        <v>1067</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C57">
-        <v>1302</v>
+        <v>41</v>
+      </c>
+      <c r="B57">
+        <v>1020</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>44</v>
-      </c>
-      <c r="B58">
-        <v>1400</v>
+        <v>122</v>
+      </c>
+      <c r="C58">
+        <v>3420</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>45</v>
-      </c>
-      <c r="B59">
-        <v>1327</v>
+        <v>42</v>
+      </c>
+      <c r="C59">
+        <v>1067</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60">
-        <v>1305</v>
+        <v>43</v>
+      </c>
+      <c r="C60">
+        <v>1302</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="B61">
+        <v>1400</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>113</v>
+      <c r="A62" t="s">
+        <v>45</v>
       </c>
       <c r="B62">
-        <v>2440</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B63">
-        <v>1052</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>49</v>
-      </c>
-      <c r="B64">
-        <v>2164</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>50</v>
-      </c>
-      <c r="C65">
-        <v>1548</v>
+      <c r="A65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65">
+        <v>2440</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>51</v>
-      </c>
-      <c r="C66">
-        <v>3035</v>
+        <v>48</v>
+      </c>
+      <c r="B66">
+        <v>1052</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>52</v>
-      </c>
-      <c r="C67">
-        <v>2594</v>
+        <v>49</v>
+      </c>
+      <c r="B67">
+        <v>2164</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>53</v>
-      </c>
-      <c r="B68">
-        <v>280</v>
+        <v>50</v>
+      </c>
+      <c r="C68">
+        <v>1548</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C69">
-        <v>1827</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>55</v>
-      </c>
-      <c r="B70">
-        <v>565</v>
+        <v>52</v>
+      </c>
+      <c r="C70">
+        <v>2594</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>56</v>
-      </c>
-      <c r="C71">
-        <v>1597</v>
+        <v>53</v>
+      </c>
+      <c r="B71">
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C72">
-        <v>673</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>58</v>
-      </c>
-      <c r="C73">
-        <v>797</v>
+        <v>55</v>
+      </c>
+      <c r="B73">
+        <v>565</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C74">
-        <v>1707</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>60</v>
-      </c>
-      <c r="B75">
-        <v>2200</v>
+        <v>57</v>
+      </c>
+      <c r="C75">
+        <v>673</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C76">
-        <v>600</v>
+        <v>797</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C77">
-        <v>691</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>63</v>
-      </c>
-      <c r="B78">
-        <v>925</v>
+        <v>138</v>
+      </c>
+      <c r="C78">
+        <v>2923</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>64</v>
-      </c>
-      <c r="C79">
-        <v>1020</v>
+        <v>60</v>
+      </c>
+      <c r="B79">
+        <v>2200</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C80">
-        <v>2362</v>
+        <v>600</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C81">
         <v>691</v>
@@ -1919,476 +1922,484 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>131</v>
-      </c>
-      <c r="C82">
-        <v>1677</v>
+        <v>63</v>
+      </c>
+      <c r="B82">
+        <v>925</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C83">
-        <v>1208</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C84">
-        <v>2989</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>69</v>
-      </c>
-      <c r="B85">
-        <v>1849</v>
+        <v>66</v>
+      </c>
+      <c r="C85">
+        <v>691</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C86">
-        <v>2949</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C87">
-        <v>1628</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C88">
-        <v>1863</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C89">
-        <v>1358</v>
+      <c r="A89" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89">
+        <v>1849</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="C90">
-        <v>2245</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C91">
-        <v>3259</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C92">
-        <v>1769</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>109</v>
+      <c r="A93" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C93">
-        <v>1052</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="C94">
-        <v>1065</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C95">
-        <v>1050</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>106</v>
+      <c r="A96" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96">
+        <v>3259</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C97">
-        <v>2969</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>76</v>
-      </c>
-      <c r="B98">
-        <v>1937</v>
+        <v>109</v>
+      </c>
+      <c r="C98">
+        <v>1052</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>77</v>
-      </c>
-      <c r="B99">
-        <v>1037</v>
+        <v>110</v>
+      </c>
+      <c r="C99">
+        <v>1065</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C100">
-        <v>2927</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>79</v>
-      </c>
-      <c r="B101">
-        <v>1455</v>
+      <c r="A101" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="C102">
-        <v>1359</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>80</v>
-      </c>
-      <c r="C103">
-        <v>2069</v>
+        <v>76</v>
+      </c>
+      <c r="B103">
+        <v>1937</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B104">
-        <v>800</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>82</v>
-      </c>
-      <c r="B105">
-        <v>2051</v>
+        <v>78</v>
+      </c>
+      <c r="C105">
+        <v>2927</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>83</v>
-      </c>
-      <c r="C106">
-        <v>1105</v>
+        <v>79</v>
+      </c>
+      <c r="B106">
+        <v>1455</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C107">
-        <v>3020</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>132</v>
+      <c r="A108" t="s">
+        <v>80</v>
       </c>
       <c r="C108">
-        <v>1370</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="C109">
-        <v>1677</v>
+        <v>81</v>
+      </c>
+      <c r="B109">
+        <v>800</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B110">
-        <v>1439</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C111">
-        <v>1863</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C112">
-        <v>3502</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>87</v>
+      <c r="A113" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C113">
-        <v>2855</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>88</v>
-      </c>
-      <c r="B114">
-        <v>1750</v>
+        <v>111</v>
+      </c>
+      <c r="C114">
+        <v>1677</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>89</v>
-      </c>
-      <c r="C115">
-        <v>2326</v>
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>1439</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C116">
-        <v>1328</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C117">
-        <v>2798</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="C118">
-        <v>2911</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>92</v>
-      </c>
-      <c r="C119">
-        <v>1851</v>
+        <v>88</v>
+      </c>
+      <c r="B119">
+        <v>1750</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>93</v>
-      </c>
-      <c r="B120">
-        <v>1346</v>
+        <v>89</v>
+      </c>
+      <c r="C120">
+        <v>2326</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C121">
-        <v>1649</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C122">
-        <v>1822</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="C123">
-        <v>2303</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="C124">
-        <v>2705</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>120</v>
-      </c>
-      <c r="C125">
-        <v>1217</v>
+        <v>93</v>
+      </c>
+      <c r="B125">
+        <v>1346</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C126">
-        <v>3690</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C127">
-        <v>2891</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C128">
-        <v>3244</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>98</v>
-      </c>
-      <c r="B129">
-        <v>1400</v>
+        <v>134</v>
+      </c>
+      <c r="C129">
+        <v>2705</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C130">
-        <v>2005</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="C131">
-        <v>1875</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C132">
-        <v>1390</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>130</v>
+      <c r="A133" t="s">
+        <v>96</v>
       </c>
       <c r="C133">
-        <v>1079</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C134">
-        <v>976</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>136</v>
-      </c>
-      <c r="C135">
-        <v>1945</v>
+        <v>98</v>
+      </c>
+      <c r="B135">
+        <v>1400</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>137</v>
+      <c r="A136" t="s">
+        <v>99</v>
       </c>
       <c r="C136">
-        <v>1054</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="C137">
-        <v>2923</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="C138">
-        <v>280</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C139">
-        <v>3089</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="C140">
-        <v>1341</v>
+        <v>976</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141">
+        <v>1256</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C134">
-    <sortCondition ref="A2:A134"/>
+  <sortState ref="A2:C140">
+    <sortCondition ref="A2:A140"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -448,6 +448,9 @@
   </si>
   <si>
     <t>Haslizentrum</t>
+  </si>
+  <si>
+    <t>Aarmatte</t>
   </si>
 </sst>
 </file>
@@ -1260,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2397,6 +2400,14 @@
         <v>1256</v>
       </c>
     </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142">
+        <v>596</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C140">
     <sortCondition ref="A2:A140"/>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="hm" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -451,6 +451,9 @@
   </si>
   <si>
     <t>Aarmatte</t>
+  </si>
+  <si>
+    <t>Rufenen</t>
   </si>
 </sst>
 </file>
@@ -1263,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2408,6 +2411,14 @@
         <v>596</v>
       </c>
     </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+      <c r="C143">
+        <v>1409</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C140">
     <sortCondition ref="A2:A140"/>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="hm" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t>Rufenen</t>
+  </si>
+  <si>
+    <t>Grindelfeld Pt 2171</t>
   </si>
 </sst>
 </file>
@@ -1266,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2419,6 +2422,14 @@
         <v>1409</v>
       </c>
     </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+      <c r="C144">
+        <v>2171</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C140">
     <sortCondition ref="A2:A140"/>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -457,6 +457,12 @@
   </si>
   <si>
     <t>Grindelfeld Pt 2171</t>
+  </si>
+  <si>
+    <t>Schwenden</t>
+  </si>
+  <si>
+    <t>Rauflihorn</t>
   </si>
 </sst>
 </file>
@@ -1269,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2430,6 +2436,22 @@
         <v>2171</v>
       </c>
     </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+      <c r="C145">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>147</v>
+      </c>
+      <c r="C146">
+        <v>2323</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C140">
     <sortCondition ref="A2:A140"/>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -463,6 +463,15 @@
   </si>
   <si>
     <t>Rauflihorn</t>
+  </si>
+  <si>
+    <t>Engstlensee</t>
+  </si>
+  <si>
+    <t>Jochpass Talstation</t>
+  </si>
+  <si>
+    <t>Oberlaeger</t>
   </si>
 </sst>
 </file>
@@ -1275,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C146"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,1161 +1309,1185 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>143</v>
+      </c>
+      <c r="C2">
+        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3">
-        <v>2130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="C4">
-        <v>3054</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2484</v>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3054</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>615</v>
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2484</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>602</v>
+        <v>615</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8">
-        <v>1531</v>
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>602</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>1757</v>
+        <v>123</v>
+      </c>
+      <c r="B9">
+        <v>1531</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>600</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>2136</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12">
-        <v>2690</v>
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>2136</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13">
-        <v>2640</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="B14">
         <v>2640</v>
       </c>
-      <c r="C14">
-        <v>1057</v>
-      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15">
-        <v>590</v>
+        <v>2640</v>
+      </c>
+      <c r="C15">
+        <v>1057</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>2401</v>
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>590</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17">
-        <v>983</v>
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>2401</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="B18">
-        <v>2094</v>
+        <v>983</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19">
-        <v>792</v>
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>2094</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20">
-        <v>1420</v>
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>792</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21">
-        <v>1453</v>
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>1420</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>15</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>1406</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>1141</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>16</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>491</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>3089</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26">
-        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27">
-        <v>2348</v>
+        <v>567</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28">
-        <v>574</v>
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>2348</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29">
-        <v>1430</v>
+        <v>129</v>
+      </c>
+      <c r="B29">
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30">
-        <v>1426</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="C31">
-        <v>280</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="C32">
-        <v>1041</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33">
-        <v>1640</v>
+        <v>148</v>
+      </c>
+      <c r="C33">
+        <v>1850</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C34">
-        <v>620</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35">
-        <v>787</v>
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>1640</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>121</v>
+      <c r="A36" t="s">
+        <v>23</v>
       </c>
       <c r="C36">
-        <v>2993</v>
+        <v>620</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37">
-        <v>582</v>
+        <v>787</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>26</v>
+      <c r="A38" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="C38">
-        <v>1205</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C39">
-        <v>3087</v>
+        <v>582</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C40">
-        <v>2204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C41">
-        <v>2129</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="C42">
-        <v>2412</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43">
-        <v>760</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="C44">
-        <v>1702</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C45">
-        <v>2036</v>
+        <v>760</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C46">
-        <v>2859</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C47">
-        <v>3075</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="C48">
-        <v>2164</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>2098</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="C50">
-        <v>2391</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C51">
-        <v>1962</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="C52">
-        <v>1302</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C53">
-        <v>2580</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="C54">
-        <v>2005</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C55">
-        <v>1593</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>137</v>
+      <c r="A56" t="s">
+        <v>39</v>
       </c>
       <c r="C56">
-        <v>1054</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>41</v>
-      </c>
-      <c r="B57">
-        <v>1020</v>
+        <v>112</v>
+      </c>
+      <c r="C57">
+        <v>2005</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="C58">
-        <v>3420</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>42</v>
+      <c r="A59" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="C59">
-        <v>1067</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60">
-        <v>1302</v>
+        <v>41</v>
+      </c>
+      <c r="B60">
+        <v>1020</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61">
-        <v>1400</v>
+        <v>122</v>
+      </c>
+      <c r="C61">
+        <v>3420</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>45</v>
-      </c>
-      <c r="B62">
-        <v>1327</v>
+        <v>42</v>
+      </c>
+      <c r="C62">
+        <v>1067</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>46</v>
-      </c>
-      <c r="B63">
-        <v>1305</v>
+        <v>43</v>
+      </c>
+      <c r="C63">
+        <v>1302</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="B64">
+        <v>1400</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>113</v>
+      <c r="A65" t="s">
+        <v>45</v>
       </c>
       <c r="B65">
-        <v>2440</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B66">
-        <v>1052</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>49</v>
-      </c>
-      <c r="B67">
-        <v>2164</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C68">
-        <v>1548</v>
+        <v>142</v>
+      </c>
+      <c r="B68">
+        <v>1256</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>51</v>
-      </c>
-      <c r="C69">
-        <v>3035</v>
+      <c r="A69" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69">
+        <v>2440</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>52</v>
-      </c>
-      <c r="C70">
-        <v>2594</v>
+        <v>48</v>
+      </c>
+      <c r="B70">
+        <v>1052</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B71">
-        <v>280</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C72">
-        <v>1827</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>55</v>
-      </c>
-      <c r="B73">
-        <v>565</v>
+        <v>149</v>
+      </c>
+      <c r="C73">
+        <v>1948</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C74">
-        <v>1597</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C75">
-        <v>673</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>58</v>
-      </c>
-      <c r="C76">
-        <v>797</v>
+        <v>53</v>
+      </c>
+      <c r="B76">
+        <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C77">
-        <v>1707</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>138</v>
-      </c>
-      <c r="C78">
-        <v>2923</v>
+        <v>55</v>
+      </c>
+      <c r="B78">
+        <v>565</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>60</v>
-      </c>
-      <c r="B79">
-        <v>2200</v>
+        <v>56</v>
+      </c>
+      <c r="C79">
+        <v>1597</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C80">
-        <v>600</v>
+        <v>673</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C81">
-        <v>691</v>
+        <v>797</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>63</v>
-      </c>
-      <c r="B82">
-        <v>925</v>
+        <v>59</v>
+      </c>
+      <c r="C82">
+        <v>1707</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="C83">
-        <v>1020</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>65</v>
-      </c>
-      <c r="C84">
-        <v>2362</v>
+        <v>60</v>
+      </c>
+      <c r="B84">
+        <v>2200</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C85">
-        <v>691</v>
+        <v>600</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="C86">
-        <v>1677</v>
+        <v>691</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>67</v>
-      </c>
-      <c r="C87">
-        <v>1208</v>
+        <v>63</v>
+      </c>
+      <c r="B87">
+        <v>925</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C88">
-        <v>2989</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>69</v>
-      </c>
-      <c r="B89">
-        <v>1849</v>
+        <v>65</v>
+      </c>
+      <c r="C89">
+        <v>2362</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="C90">
-        <v>2949</v>
+        <v>691</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="C91">
-        <v>1628</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="C92">
-        <v>1863</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>116</v>
+      <c r="A93" t="s">
+        <v>67</v>
       </c>
       <c r="C93">
-        <v>1358</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="C94">
-        <v>1341</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>72</v>
-      </c>
-      <c r="C95">
-        <v>2245</v>
+        <v>69</v>
+      </c>
+      <c r="B95">
+        <v>1849</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C96">
-        <v>3259</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C97">
-        <v>1769</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="C98">
-        <v>1052</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>110</v>
+      <c r="A99" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C99">
-        <v>1065</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="C100">
-        <v>1050</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>106</v>
+      <c r="A101" t="s">
+        <v>72</v>
+      </c>
+      <c r="C101">
+        <v>2245</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="C102">
-        <v>2969</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>76</v>
-      </c>
-      <c r="B103">
-        <v>1937</v>
+        <v>73</v>
+      </c>
+      <c r="C103">
+        <v>1769</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>77</v>
-      </c>
-      <c r="B104">
-        <v>1037</v>
+        <v>147</v>
+      </c>
+      <c r="C104">
+        <v>2323</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="C105">
-        <v>2927</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>79</v>
-      </c>
-      <c r="B106">
-        <v>1455</v>
+        <v>110</v>
+      </c>
+      <c r="C106">
+        <v>1065</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="C107">
-        <v>1359</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="C108">
-        <v>2069</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>81</v>
-      </c>
-      <c r="B109">
-        <v>800</v>
+      <c r="A109" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>82</v>
-      </c>
-      <c r="B110">
-        <v>2051</v>
+        <v>75</v>
+      </c>
+      <c r="C110">
+        <v>2969</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>83</v>
-      </c>
-      <c r="C111">
-        <v>1105</v>
+        <v>76</v>
+      </c>
+      <c r="B111">
+        <v>1937</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>84</v>
-      </c>
-      <c r="C112">
-        <v>3020</v>
+        <v>77</v>
+      </c>
+      <c r="B112">
+        <v>1037</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>132</v>
+      <c r="A113" t="s">
+        <v>78</v>
       </c>
       <c r="C113">
-        <v>1370</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>111</v>
-      </c>
-      <c r="C114">
-        <v>1677</v>
+        <v>79</v>
+      </c>
+      <c r="B114">
+        <v>1455</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115">
-        <v>1439</v>
+        <v>146</v>
+      </c>
+      <c r="C115">
+        <v>1224</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="C116">
-        <v>1863</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C117">
-        <v>3502</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>87</v>
-      </c>
-      <c r="C118">
-        <v>2855</v>
+        <v>81</v>
+      </c>
+      <c r="B118">
+        <v>800</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B119">
-        <v>1750</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C120">
-        <v>2326</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C121">
-        <v>1328</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>91</v>
+      <c r="A122" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C122">
-        <v>2798</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C123">
-        <v>2911</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>92</v>
-      </c>
-      <c r="C124">
-        <v>1851</v>
+        <v>114</v>
+      </c>
+      <c r="B124">
+        <v>1439</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>93</v>
-      </c>
-      <c r="B125">
-        <v>1346</v>
+        <v>85</v>
+      </c>
+      <c r="C125">
+        <v>1863</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C126">
-        <v>1649</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C127">
-        <v>1822</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>108</v>
-      </c>
-      <c r="C128">
-        <v>2303</v>
+        <v>88</v>
+      </c>
+      <c r="B128">
+        <v>1750</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="C129">
-        <v>2705</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C130">
-        <v>1217</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="C131">
-        <v>1945</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C132">
-        <v>3690</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C133">
-        <v>2891</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>97</v>
-      </c>
-      <c r="C134">
-        <v>3244</v>
+        <v>93</v>
+      </c>
+      <c r="B134">
+        <v>1346</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>98</v>
-      </c>
-      <c r="B135">
-        <v>1400</v>
+        <v>94</v>
+      </c>
+      <c r="C135">
+        <v>1649</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C136">
-        <v>2005</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C137">
-        <v>1875</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C138">
-        <v>1390</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>130</v>
+      <c r="A139" t="s">
+        <v>120</v>
       </c>
       <c r="C139">
-        <v>1079</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C140">
-        <v>976</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>142</v>
-      </c>
-      <c r="B141">
-        <v>1256</v>
+        <v>115</v>
+      </c>
+      <c r="C141">
+        <v>3690</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="C142">
-        <v>596</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="C143">
-        <v>1409</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>145</v>
-      </c>
-      <c r="C144">
-        <v>2171</v>
+        <v>98</v>
+      </c>
+      <c r="B144">
+        <v>1400</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="C145">
-        <v>1224</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="C146">
-        <v>2323</v>
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>101</v>
+      </c>
+      <c r="C147">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C148">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>102</v>
+      </c>
+      <c r="C149">
+        <v>976</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C140">
-    <sortCondition ref="A2:A140"/>
+  <sortState ref="A2:C149">
+    <sortCondition ref="A2:A149"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -472,6 +472,9 @@
   </si>
   <si>
     <t>Oberlaeger</t>
+  </si>
+  <si>
+    <t>Gemschberg</t>
   </si>
 </sst>
 </file>
@@ -1284,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2485,6 +2488,14 @@
         <v>976</v>
       </c>
     </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="C150">
+        <v>2658</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C149">
     <sortCondition ref="A2:A149"/>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>Gemschberg</t>
+  </si>
+  <si>
+    <t>Oberlaeger Pt. 2090</t>
   </si>
 </sst>
 </file>
@@ -1287,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2496,6 +2499,14 @@
         <v>2658</v>
       </c>
     </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+      <c r="C151">
+        <v>2090</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C149">
     <sortCondition ref="A2:A149"/>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -478,6 +478,9 @@
   </si>
   <si>
     <t>Oberlaeger Pt. 2090</t>
+  </si>
+  <si>
+    <t>Schrybershiri</t>
   </si>
 </sst>
 </file>
@@ -1290,10 +1293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2507,6 +2510,14 @@
         <v>2090</v>
       </c>
     </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C152">
+        <v>2517</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C149">
     <sortCondition ref="A2:A149"/>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -481,6 +481,12 @@
   </si>
   <si>
     <t>Schrybershiri</t>
+  </si>
+  <si>
+    <t>Sandstrasse</t>
+  </si>
+  <si>
+    <t>Bruenig 1013</t>
   </si>
 </sst>
 </file>
@@ -1293,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2518,6 +2524,22 @@
         <v>2517</v>
       </c>
     </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+      <c r="C153">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+      <c r="C154">
+        <v>1013</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C149">
     <sortCondition ref="A2:A149"/>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -487,6 +487,9 @@
   </si>
   <si>
     <t>Bruenig 1013</t>
+  </si>
+  <si>
+    <t>Milifloeh</t>
   </si>
 </sst>
 </file>
@@ -1299,9 +1302,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:C155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
       <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
@@ -2540,6 +2543,14 @@
         <v>1013</v>
       </c>
     </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>156</v>
+      </c>
+      <c r="C155">
+        <v>976</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C149">
     <sortCondition ref="A2:A149"/>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -490,6 +490,9 @@
   </si>
   <si>
     <t>Milifloeh</t>
+  </si>
+  <si>
+    <t>Alpbruecke</t>
   </si>
 </sst>
 </file>
@@ -1302,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C155"/>
+  <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="R170" sqref="R170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2551,6 +2554,14 @@
         <v>976</v>
       </c>
     </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>157</v>
+      </c>
+      <c r="C156">
+        <v>1540</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C149">
     <sortCondition ref="A2:A149"/>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -493,6 +493,9 @@
   </si>
   <si>
     <t>Alpbruecke</t>
+  </si>
+  <si>
+    <t>Saageli</t>
   </si>
 </sst>
 </file>
@@ -1305,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C156"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="R170" sqref="R170"/>
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2562,6 +2565,14 @@
         <v>1540</v>
       </c>
     </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+      <c r="C157">
+        <v>1223</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C149">
     <sortCondition ref="A2:A149"/>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -496,6 +496,12 @@
   </si>
   <si>
     <t>Saageli</t>
+  </si>
+  <si>
+    <t>Monte Rosa Huette</t>
+  </si>
+  <si>
+    <t>Dufourspitze</t>
   </si>
 </sst>
 </file>
@@ -1308,10 +1314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2573,6 +2579,22 @@
         <v>1223</v>
       </c>
     </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>159</v>
+      </c>
+      <c r="C158">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>160</v>
+      </c>
+      <c r="C159">
+        <v>4634</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C149">
     <sortCondition ref="A2:A149"/>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -502,6 +502,15 @@
   </si>
   <si>
     <t>Dufourspitze</t>
+  </si>
+  <si>
+    <t>Hilten</t>
+  </si>
+  <si>
+    <t>Galenstock</t>
+  </si>
+  <si>
+    <t>Belvedere</t>
   </si>
 </sst>
 </file>
@@ -1314,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="C160" sqref="C160"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2595,6 +2604,30 @@
         <v>4634</v>
       </c>
     </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>161</v>
+      </c>
+      <c r="C160">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+      <c r="C161">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>163</v>
+      </c>
+      <c r="C162">
+        <v>2269</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C149">
     <sortCondition ref="A2:A149"/>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C44D69-5A54-4495-B50B-0B65055F59C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14685"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hm" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -511,12 +512,18 @@
   </si>
   <si>
     <t>Belvedere</t>
+  </si>
+  <si>
+    <t>Britanniahuette</t>
+  </si>
+  <si>
+    <t>Allalinhorn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -996,56 +1003,56 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1322,14 +1329,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C162"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -2628,8 +2635,24 @@
         <v>2269</v>
       </c>
     </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+      <c r="C163">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>165</v>
+      </c>
+      <c r="C164">
+        <v>4027</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:C149">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C149">
     <sortCondition ref="A2:A149"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C44D69-5A54-4495-B50B-0B65055F59C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC52703-E574-4547-BAAE-2E6A3879B77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -518,6 +518,18 @@
   </si>
   <si>
     <t>Allalinhorn</t>
+  </si>
+  <si>
+    <t>Turren</t>
+  </si>
+  <si>
+    <t>Griesalp</t>
+  </si>
+  <si>
+    <t>Blueemlisalphuette</t>
+  </si>
+  <si>
+    <t>Kandersteg</t>
   </si>
 </sst>
 </file>
@@ -1330,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C164"/>
+  <dimension ref="A1:C168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2651,6 +2663,38 @@
         <v>4027</v>
       </c>
     </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>166</v>
+      </c>
+      <c r="C165">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+      <c r="C166">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+      <c r="C167">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>169</v>
+      </c>
+      <c r="C168">
+        <v>1171</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C149">
     <sortCondition ref="A2:A149"/>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC52703-E574-4547-BAAE-2E6A3879B77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC282CB-3171-49A5-9605-32570D892594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="C169" sqref="C169"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1907,7 +1907,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B70">

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC282CB-3171-49A5-9605-32570D892594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B1CC0C-404D-4AAD-AAC0-8D6723367D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -530,6 +530,12 @@
   </si>
   <si>
     <t>Kandersteg</t>
+  </si>
+  <si>
+    <t>Schwandegg</t>
+  </si>
+  <si>
+    <t>Niesen Plattform Treppenlauf</t>
   </si>
 </sst>
 </file>
@@ -1342,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C168"/>
+  <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2076,628 +2082,644 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="C91">
-        <v>1677</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C92">
-        <v>1950</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="C93">
-        <v>1208</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C94">
-        <v>2989</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>69</v>
-      </c>
-      <c r="B95">
-        <v>1849</v>
+        <v>68</v>
+      </c>
+      <c r="C95">
+        <v>2989</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>128</v>
-      </c>
-      <c r="C96">
-        <v>2949</v>
+        <v>69</v>
+      </c>
+      <c r="B96">
+        <v>1849</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="C97">
-        <v>1628</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>70</v>
+      </c>
+      <c r="C98">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>71</v>
       </c>
-      <c r="C98">
+      <c r="C99">
         <v>1863</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C99">
+      <c r="C100">
         <v>1358</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>141</v>
-      </c>
-      <c r="C100">
-        <v>1341</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="C101">
-        <v>2245</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="C102">
-        <v>3259</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="C103">
-        <v>1769</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="C104">
-        <v>2323</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="C105">
-        <v>1052</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C106">
-        <v>1065</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="C107">
-        <v>1050</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>74</v>
+      </c>
+      <c r="C108">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>144</v>
       </c>
-      <c r="C108">
+      <c r="C109">
         <v>1409</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>75</v>
-      </c>
-      <c r="C110">
-        <v>2969</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>76</v>
-      </c>
-      <c r="B111">
-        <v>1937</v>
+        <v>75</v>
+      </c>
+      <c r="C111">
+        <v>2969</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B112">
-        <v>1037</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>78</v>
-      </c>
-      <c r="C113">
-        <v>2927</v>
+        <v>77</v>
+      </c>
+      <c r="B113">
+        <v>1037</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>79</v>
-      </c>
-      <c r="B114">
-        <v>1455</v>
+        <v>78</v>
+      </c>
+      <c r="C114">
+        <v>2927</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>146</v>
-      </c>
-      <c r="C115">
-        <v>1224</v>
+        <v>79</v>
+      </c>
+      <c r="B115">
+        <v>1455</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="C116">
-        <v>1359</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="C117">
-        <v>2069</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>81</v>
-      </c>
-      <c r="B118">
-        <v>800</v>
+        <v>80</v>
+      </c>
+      <c r="C118">
+        <v>2069</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B119">
-        <v>2051</v>
+        <v>800</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>83</v>
-      </c>
-      <c r="C120">
-        <v>1105</v>
+        <v>82</v>
+      </c>
+      <c r="B120">
+        <v>2051</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>83</v>
+      </c>
+      <c r="C121">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>84</v>
       </c>
-      <c r="C121">
+      <c r="C122">
         <v>3020</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C122">
+      <c r="C123">
         <v>1370</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>111</v>
-      </c>
-      <c r="C123">
-        <v>1677</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>114</v>
-      </c>
-      <c r="B124">
-        <v>1439</v>
+        <v>111</v>
+      </c>
+      <c r="C124">
+        <v>1677</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>85</v>
-      </c>
-      <c r="C125">
-        <v>1863</v>
+        <v>114</v>
+      </c>
+      <c r="B125">
+        <v>1439</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C126">
-        <v>3502</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C127">
-        <v>2855</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>88</v>
-      </c>
-      <c r="B128">
-        <v>1750</v>
+        <v>87</v>
+      </c>
+      <c r="C128">
+        <v>2855</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>89</v>
-      </c>
-      <c r="C129">
-        <v>2326</v>
+        <v>88</v>
+      </c>
+      <c r="B129">
+        <v>1750</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C130">
-        <v>1328</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C131">
-        <v>2798</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="C132">
-        <v>2911</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="C133">
-        <v>1851</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>93</v>
-      </c>
-      <c r="B134">
-        <v>1346</v>
+        <v>92</v>
+      </c>
+      <c r="C134">
+        <v>1851</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>94</v>
-      </c>
-      <c r="C135">
-        <v>1649</v>
+        <v>93</v>
+      </c>
+      <c r="B135">
+        <v>1346</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C136">
-        <v>1822</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C137">
-        <v>2303</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C138">
-        <v>2705</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C139">
-        <v>1217</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C140">
-        <v>1945</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C141">
-        <v>3690</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C142">
-        <v>2891</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C143">
-        <v>3244</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>98</v>
-      </c>
-      <c r="B144">
-        <v>1400</v>
+        <v>97</v>
+      </c>
+      <c r="C144">
+        <v>3244</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>99</v>
-      </c>
-      <c r="C145">
-        <v>2005</v>
+        <v>98</v>
+      </c>
+      <c r="B145">
+        <v>1400</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C146">
-        <v>1875</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>100</v>
+      </c>
+      <c r="C147">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>101</v>
       </c>
-      <c r="C147">
+      <c r="C148">
         <v>1390</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C148">
+      <c r="C149">
         <v>1079</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>102</v>
-      </c>
-      <c r="C149">
-        <v>976</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="C150">
-        <v>2658</v>
+        <v>976</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="C151">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>152</v>
       </c>
-      <c r="C151">
+      <c r="C152">
         <v>2090</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C152">
+      <c r="C153">
         <v>2517</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>154</v>
-      </c>
-      <c r="C153">
-        <v>618</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C154">
-        <v>1013</v>
+        <v>618</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C155">
-        <v>976</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C156">
-        <v>1540</v>
+        <v>976</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C157">
-        <v>1223</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C158">
-        <v>2883</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C159">
-        <v>4634</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C160">
-        <v>1706</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C161">
-        <v>3586</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C162">
-        <v>2269</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C163">
-        <v>3030</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C164">
-        <v>4027</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C165">
-        <v>1562</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C166">
-        <v>1409</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C167">
-        <v>2835</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="C168">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>169</v>
       </c>
-      <c r="C168">
+      <c r="C169">
         <v>1171</v>
       </c>
     </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+      <c r="C170">
+        <v>1617</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C149">
-    <sortCondition ref="A2:A149"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C150">
+    <sortCondition ref="A2:A150"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B1CC0C-404D-4AAD-AAC0-8D6723367D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A2662B-E398-4DFB-BDDF-C13C567F5BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -535,7 +535,13 @@
     <t>Schwandegg</t>
   </si>
   <si>
-    <t>Niesen Plattform Treppenlauf</t>
+    <t>Geissholz Start Signal</t>
+  </si>
+  <si>
+    <t>Niesen Plattform (Lauf)</t>
+  </si>
+  <si>
+    <t>Schwandegg Bruecke</t>
   </si>
 </sst>
 </file>
@@ -1348,15 +1354,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C170"/>
+  <dimension ref="A1:C172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2082,7 +2088,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C91">
         <v>2362</v>
@@ -2714,6 +2720,22 @@
         <v>170</v>
       </c>
       <c r="C170">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+      <c r="C172">
         <v>1617</v>
       </c>
     </row>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A2662B-E398-4DFB-BDDF-C13C567F5BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1768B8-48D1-4EDD-B549-07EDC4A31192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -542,6 +542,12 @@
   </si>
   <si>
     <t>Schwandegg Bruecke</t>
+  </si>
+  <si>
+    <t>Goldern</t>
+  </si>
+  <si>
+    <t>Maegisalp</t>
   </si>
 </sst>
 </file>
@@ -1354,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C172"/>
+  <dimension ref="A1:C174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2739,6 +2745,22 @@
         <v>1617</v>
       </c>
     </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+      <c r="C173">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>175</v>
+      </c>
+      <c r="C174">
+        <v>1707</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C150">
     <sortCondition ref="A2:A150"/>
